--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Product Not Received\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7710F3FE-A0B0-4E25-926E-D0DFCEF34184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E46A62-A059-4319-AF21-9570022923BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -46,13 +46,286 @@
   </si>
   <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good </t>
+  </si>
+  <si>
+    <t>SERVO FUTURA NXT 0W-16-4X3.5 L PROMO LUBE</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-16 FE-210 L</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lubes On-Hand </t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-20-210 L</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-20-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>HY SERVO PETROL EO SN PLUS-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>HY SERVO SYNTH 0W-30 SP/C3-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>HY.SERVO ENGINE OIL 5W-30-4x3.5L</t>
+  </si>
+  <si>
+    <t>HYUNDAI S.GEAR OIL 75W-85-4X2.5L-HDPE</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO COOLANT 50-20 X 1 L</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO CRDi PREM.ENG.OIL 4X5L-HDP</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO SUPERIOR 0W30-4 X 4 L</t>
+  </si>
+  <si>
+    <t>IOC CLEARBLUE-10 L</t>
+  </si>
+  <si>
+    <t>IOC CLEARBLUE-20 L</t>
+  </si>
+  <si>
+    <t>MGDO 15W-40 - 4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>MGGO 80W-90 - 4 X 2.1 L</t>
+  </si>
+  <si>
+    <t>MGO 20W-40 - 20 X 1 L</t>
+  </si>
+  <si>
+    <t>MGO 20W-40 - 4 X 3 L</t>
+  </si>
+  <si>
+    <t>MGO 5W-30-4 X 3 L</t>
+  </si>
+  <si>
+    <t>MGO 5W-30-4x3.5L HDPE</t>
+  </si>
+  <si>
+    <t>S FLEET SUPREME CI4PLUS 15W-40-210 L</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME (JFC) - 200X60ML - POU</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME(JFC)-300x40ML - POU</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-20X1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-600 X 20 ML</t>
+  </si>
+  <si>
+    <t>SERVO 4T - 20 X 1 L HDPE PROMO</t>
+  </si>
+  <si>
+    <t>SERVO 4T XTRA 10W-30-20 X 0.9 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO 4T XTRA-20 X 1 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID DOT 4-20 X 1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID DOT 4-20 X 1/4 L</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID SUPER HD - 20X1/4L-HDP</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID SUPER HD -20X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO FLEET CF4 15W-40 - 20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO FUTURA G PLUS 5W-30-4 X 3 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO FUTURA G PLUS 5W-30-4X3.5 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90 - 4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90-40X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 20 X 1 L HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO GREASE MP 3 - 10 X 1 KG CTN</t>
+  </si>
+  <si>
+    <t>SERVO GREASE MP 3 - 20 X 1/2 KG CTN</t>
+  </si>
+  <si>
+    <t>SERVO GREENMILE-4 X 3.5 L LUBE</t>
+  </si>
+  <si>
+    <t>SERVO HONDA JOSH-20 X 0.9 L</t>
+  </si>
+  <si>
+    <t>SERVO HONDA SCOOTONXT-20 X 0.8 L</t>
+  </si>
+  <si>
+    <t>SERVO KOOL PLUS -210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO KOOL PLUS-20X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO KOOL PLUS-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-15 L</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-40X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-4X5L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-4x5L - PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE 40 - 20x1L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE 40 - 4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W-40- 4 X 5L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40 - 20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-10L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-15L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-7.5L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-15L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-20 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO SCOOTOMATIC 4ST 10W-30-20 X 0.8 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-10 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-20 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-40X1/2L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-7.5 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPERIOR EO 0W20 SN PLUS-50 L</t>
+  </si>
+  <si>
+    <t>SERVO TRANSFLUID A-20X1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO TRANSFLUID A-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3 - 182 KG DRM</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3 - 5 KG BUC</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3 -20 KG BUC</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3-4X3 KG</t>
+  </si>
+  <si>
+    <t>SERVOHYDRASHAKTI 68-20 L</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 32-20L BUC</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 68 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 68-20L BUC</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 68-210 L HD</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 68-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM HLP 68 - 210L BRL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +340,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +358,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF0F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FA"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,12 +413,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -444,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CF230-FE28-411F-9665-00F0E407DD20}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,6 +780,2122 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7421234</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7271111</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6240</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7271111</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10080</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7079401</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7427401</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7427213</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6456</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7420213</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7420213</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5812</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7209213</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15540</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2968213</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6008</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2557195</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7232184</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6020</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7638234</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7638234</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7800</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7205222</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6880</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7330242</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <v>670</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7330265</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7670213</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4860</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2540199</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3">
+        <v>285.60000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7600184</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6780</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>46</v>
+      </c>
+      <c r="G21" s="4">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7600203</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4068</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>139</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7688203</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4308</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7688213</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5028</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7470401</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2900145</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2900125</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5400</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2900184</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3">
+        <v>7140</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2900175</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3760</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2900103</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2924229</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7600</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2829230</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8440</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2828229</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4">
+        <v>9280</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2914175</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3">
+        <v>6040</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2914165</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3180</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2909165</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2909175</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4240</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>7472184</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6380</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2967204</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="4">
+        <v>6884</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4">
+        <v>19</v>
+      </c>
+      <c r="G39" s="4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2967111</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3">
+        <v>8020</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="3">
+        <v>14</v>
+      </c>
+      <c r="G40" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2502401</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2502234</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6980</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>14</v>
+      </c>
+      <c r="G42" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2502184</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7100</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4">
+        <v>23</v>
+      </c>
+      <c r="G43" s="4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2502174</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7520</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>7511184</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="4">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4">
+        <v>10</v>
+      </c>
+      <c r="G45" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7511401</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>7705313</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4500</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7705303</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>7211213</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6300</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3</v>
+      </c>
+      <c r="G49" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2927152</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6840</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2933156</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="4">
+        <v>6480</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4">
+        <v>21</v>
+      </c>
+      <c r="G51" s="4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>7584401</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>7584175</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="4">
+        <v>4060</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>7584184</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3">
+        <v>21</v>
+      </c>
+      <c r="G54" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>7577401</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>7577256</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5025</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>7577184</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="4">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4">
+        <v>25</v>
+      </c>
+      <c r="G57" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>7577174</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="3">
+        <v>7320</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6</v>
+      </c>
+      <c r="G58" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>7577234</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="4">
+        <v>6780</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>7577240</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="3">
+        <v>6780</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>17</v>
+      </c>
+      <c r="G60" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1404184</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="4">
+        <v>6800</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4">
+        <v>4</v>
+      </c>
+      <c r="G61" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1404184</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1404234</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="4">
+        <v>7100</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4">
+        <v>7</v>
+      </c>
+      <c r="G63" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>7556234</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>7556184</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="4">
+        <v>7100</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>7556241</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
+        <v>7556253</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="4">
+        <v>5025</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>7556250</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2563</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>7489253</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="4">
+        <v>5675</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>7489265</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>7489184</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="4">
+        <v>7900</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>7489234</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2889156</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="4">
+        <v>6840</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="4">
+        <v>3</v>
+      </c>
+      <c r="G73" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>7485242</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2890</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="3">
+        <v>3</v>
+      </c>
+      <c r="G74" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>7485265</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="4">
+        <v>5740</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>7485184</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="3">
+        <v>6040</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3">
+        <v>28</v>
+      </c>
+      <c r="G76" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>7485174</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="4">
+        <v>6240</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4">
+        <v>21</v>
+      </c>
+      <c r="G77" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>7485234</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="3">
+        <v>6020</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="3">
+        <v>14</v>
+      </c>
+      <c r="G78" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <v>7485251</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2176</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="4">
+        <v>3</v>
+      </c>
+      <c r="G79" s="4">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>7208271</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>4906175</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="4">
+        <v>3960</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4906184</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="3">
+        <v>11</v>
+      </c>
+      <c r="G82" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <v>7705451</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="4">
+        <v>3</v>
+      </c>
+      <c r="G83" s="4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>7705339</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2030</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="3">
+        <v>8</v>
+      </c>
+      <c r="G84" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <v>7705341</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="4">
+        <v>8000</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="4">
+        <v>8</v>
+      </c>
+      <c r="G85" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>7705337</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="3">
+        <v>4940</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4">
+        <v>3040265</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="4">
+        <v>4575</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="4">
+        <v>29</v>
+      </c>
+      <c r="G87" s="4">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>3001265</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="3">
+        <v>5010</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>3006401</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3006265</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5336</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3">
+        <v>14</v>
+      </c>
+      <c r="G90" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3006403</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>3006234</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="3">
+        <v>5532</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="3">
+        <v>19</v>
+      </c>
+      <c r="G92" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>3084401</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E46A62-A059-4319-AF21-9570022923BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE2D73-6EFB-4F63-87B4-96AF781DC645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3">
         <v>100</v>

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE2D73-6EFB-4F63-87B4-96AF781DC645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7160A8E-15FE-4A26-8702-F6D0F7B15063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -325,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +346,135 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,8 +499,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -409,9 +709,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -428,8 +876,49 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
-        <v>1260</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -889,10 +1378,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>840</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7160A8E-15FE-4A26-8702-F6D0F7B15063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DBCCB7-4443-4435-8B17-F169EDE7D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,10 +1769,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G23" s="4">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DBCCB7-4443-4435-8B17-F169EDE7D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7808923B-DA2A-4C3C-824B-BE847BB8677E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CF230-FE28-411F-9665-00F0E407DD20}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,10 +1631,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1654,10 +1654,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1723,10 +1723,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G21" s="4">
-        <v>920</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1746,10 +1746,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G22" s="3">
-        <v>1668</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1861,10 +1861,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1884,10 +1884,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1907,10 +1907,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" s="4">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2022,10 +2022,10 @@
         <v>8</v>
       </c>
       <c r="F34" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2068,10 +2068,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G36" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2091,10 +2091,10 @@
         <v>8</v>
       </c>
       <c r="F37" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G37" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2206,10 +2206,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2229,10 +2229,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G43" s="4">
-        <v>460</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2413,10 +2413,10 @@
         <v>8</v>
       </c>
       <c r="F51" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51" s="4">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2620,10 +2620,10 @@
         <v>8</v>
       </c>
       <c r="F60" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" s="3">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2689,10 +2689,10 @@
         <v>8</v>
       </c>
       <c r="F63" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G63" s="4">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2965,10 +2965,10 @@
         <v>8</v>
       </c>
       <c r="F75" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G75" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2988,10 +2988,10 @@
         <v>8</v>
       </c>
       <c r="F76" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G76" s="3">
-        <v>560</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3126,10 +3126,10 @@
         <v>8</v>
       </c>
       <c r="F82" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G82" s="3">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3172,10 +3172,10 @@
         <v>8</v>
       </c>
       <c r="F84" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G84" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3195,10 +3195,10 @@
         <v>8</v>
       </c>
       <c r="F85" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G85" s="4">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3241,10 +3241,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="4">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G87" s="4">
-        <v>580</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3310,10 +3310,10 @@
         <v>8</v>
       </c>
       <c r="F90" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G90" s="3">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3356,10 +3356,10 @@
         <v>8</v>
       </c>
       <c r="F92" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G92" s="3">
-        <v>380</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7808923B-DA2A-4C3C-824B-BE847BB8677E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D8E18-940B-4C1F-87B6-7DF5537470CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CF230-FE28-411F-9665-00F0E407DD20}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,10 +2160,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="3">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2206,10 +2206,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G57" s="4">
-        <v>500</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -3195,10 +3195,10 @@
         <v>8</v>
       </c>
       <c r="F85" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G85" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3241,10 +3241,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G87" s="4">
-        <v>380</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D8E18-940B-4C1F-87B6-7DF5537470CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5FD282-B9D7-45F2-85B7-95107689526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>SERVOSYSTEM HLP 68 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO 4T 20W-50-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90-7.5 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE NXT CK4 15W-40-15 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE NXT CK4 15W-40-7.5 L PROMO</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CF230-FE28-411F-9665-00F0E407DD20}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3">
-        <v>112</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1654,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1723,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="4">
-        <v>880</v>
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1769,10 +1781,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="4">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G23" s="4">
-        <v>144</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1959,41 +1971,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>2829230</v>
+        <v>2931184</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D32" s="3">
-        <v>8440</v>
+        <v>8700</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>2828229</v>
+        <v>2829230</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="4">
-        <v>9280</v>
+        <v>8440</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
@@ -2002,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2010,22 +2022,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>2914175</v>
+        <v>2828229</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
-        <v>6040</v>
+        <v>9280</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2033,45 +2045,45 @@
         <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>2914165</v>
+        <v>2914175</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4">
-        <v>3180</v>
+        <v>6040</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G35" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>2909165</v>
+        <v>2914165</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3">
-        <v>2200</v>
+        <v>3180</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2079,13 +2091,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>2909175</v>
+        <v>2909165</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4">
-        <v>4240</v>
+        <v>2200</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>8</v>
@@ -2094,53 +2106,53 @@
         <v>3</v>
       </c>
       <c r="G37" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>7472184</v>
+        <v>2909175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="3">
-        <v>6380</v>
+        <v>4240</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>2967204</v>
+        <v>7472184</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4">
-        <v>6884</v>
+        <v>6380</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2148,45 +2160,45 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>2967111</v>
+        <v>2967204</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="3">
-        <v>8020</v>
+        <v>6884</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G40" s="3">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>2502401</v>
+        <v>2967111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="D41" s="4">
+        <v>8020</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F41" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G41" s="4">
-        <v>420</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2194,22 +2206,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>2502234</v>
+        <v>2502401</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="3">
-        <v>6980</v>
+        <v>46</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F42" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2217,22 +2229,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="4">
-        <v>2502184</v>
+        <v>2502234</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="4">
-        <v>7100</v>
+        <v>6980</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G43" s="4">
-        <v>400</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2240,36 +2252,36 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>2502174</v>
+        <v>2502184</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3">
-        <v>7520</v>
+        <v>7100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>7511184</v>
+        <v>2502174</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4">
-        <v>7800</v>
+        <v>7520</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>8</v>
@@ -2281,27 +2293,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>7511401</v>
+        <v>7511184</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="D46" s="3">
+        <v>7800</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G46" s="3">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2309,22 +2321,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="4">
-        <v>7705313</v>
+        <v>7511401</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4500</v>
+        <v>51</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F47" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G47" s="4">
-        <v>100</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2332,22 +2344,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>7705303</v>
+        <v>7511251</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D48" s="3">
-        <v>4600</v>
+        <v>2763</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>90</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2355,22 +2367,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="4">
-        <v>7211213</v>
+        <v>7705313</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49" s="4">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G49" s="4">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2378,22 +2390,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>2927152</v>
+        <v>7705303</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3">
-        <v>6840</v>
+        <v>4600</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G50" s="3">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2401,22 +2413,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="4">
-        <v>2933156</v>
+        <v>7211213</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4">
-        <v>6480</v>
+        <v>6300</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G51" s="4">
-        <v>320</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2424,22 +2436,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>7584401</v>
+        <v>2927152</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="D52" s="3">
+        <v>6840</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2447,22 +2459,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="4">
-        <v>7584175</v>
+        <v>2933156</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D53" s="4">
-        <v>4060</v>
+        <v>6480</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G53" s="4">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2470,22 +2482,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>7584184</v>
+        <v>7584401</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="3">
-        <v>7400</v>
+        <v>57</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F54" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2493,16 +2505,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4">
-        <v>7577401</v>
+        <v>7584175</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4060</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -2516,68 +2528,68 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>7577256</v>
+        <v>7584184</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" s="3">
-        <v>5025</v>
+        <v>7400</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="4">
-        <v>7577184</v>
+        <v>7577401</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="4">
-        <v>6900</v>
+        <v>60</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F57" s="4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G57" s="4">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>7577174</v>
+        <v>7577256</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="3">
-        <v>7320</v>
+        <v>5025</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2585,22 +2597,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="4">
-        <v>7577234</v>
+        <v>7577184</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4">
-        <v>6780</v>
+        <v>6900</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G59" s="4">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2608,68 +2620,68 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>7577240</v>
+        <v>7577174</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3">
-        <v>6780</v>
+        <v>7320</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G60" s="3">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="4">
-        <v>1404184</v>
+        <v>7577234</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61" s="4">
-        <v>6800</v>
+        <v>6780</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G61" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>1404184</v>
+        <v>7577240</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="3">
-        <v>7100</v>
+        <v>6780</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2677,22 +2689,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="4">
-        <v>1404234</v>
+        <v>1404184</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="4">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G63" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2700,13 +2712,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>7556234</v>
+        <v>1404184</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
@@ -2723,10 +2735,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4">
-        <v>7556184</v>
+        <v>1404234</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D65" s="4">
         <v>7100</v>
@@ -2735,56 +2747,56 @@
         <v>8</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>7556241</v>
+        <v>7436253</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>6175</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="4">
-        <v>7556253</v>
+        <v>7436250</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D67" s="4">
-        <v>5025</v>
+        <v>3113</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G67" s="4">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2792,36 +2804,36 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>7556250</v>
+        <v>7556234</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D68" s="3">
-        <v>2563</v>
+        <v>6900</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" s="3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="4">
-        <v>7489253</v>
+        <v>7556184</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D69" s="4">
-        <v>5675</v>
+        <v>7100</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>8</v>
@@ -2838,13 +2850,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>7489265</v>
+        <v>7556241</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D70" s="3">
-        <v>7500</v>
+        <v>3400</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>8</v>
@@ -2861,45 +2873,45 @@
         <v>70</v>
       </c>
       <c r="B71" s="4">
-        <v>7489184</v>
+        <v>7556253</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D71" s="4">
-        <v>7900</v>
+        <v>5025</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>7489234</v>
+        <v>7556250</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D72" s="3">
-        <v>7700</v>
+        <v>2563</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2907,22 +2919,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4">
-        <v>2889156</v>
+        <v>7489253</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D73" s="4">
-        <v>6840</v>
+        <v>5675</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G73" s="4">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2930,22 +2942,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>7485242</v>
+        <v>7489265</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D74" s="3">
-        <v>2890</v>
+        <v>7500</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2953,68 +2965,68 @@
         <v>74</v>
       </c>
       <c r="B75" s="4">
-        <v>7485265</v>
+        <v>7489184</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D75" s="4">
-        <v>5740</v>
+        <v>7900</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>7485184</v>
+        <v>7489234</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D76" s="3">
-        <v>6040</v>
+        <v>7700</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="4">
-        <v>7485174</v>
+        <v>2889156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D77" s="4">
-        <v>6240</v>
+        <v>6840</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G77" s="4">
-        <v>420</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3022,22 +3034,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>7485234</v>
+        <v>7485242</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D78" s="3">
-        <v>6020</v>
+        <v>2890</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G78" s="3">
-        <v>280</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3045,22 +3057,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="4">
-        <v>7485251</v>
+        <v>7485265</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D79" s="4">
-        <v>2176</v>
+        <v>5740</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" s="4">
-        <v>22.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3068,22 +3080,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>7208271</v>
+        <v>7485184</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="D80" s="3">
+        <v>6040</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F80" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3091,22 +3103,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="4">
-        <v>4906175</v>
+        <v>7485174</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D81" s="4">
-        <v>3960</v>
+        <v>6240</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="4">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G81" s="4">
-        <v>10</v>
+        <v>720</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3114,22 +3126,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>4906184</v>
+        <v>7485234</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D82" s="3">
-        <v>7500</v>
+        <v>6020</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G82" s="3">
-        <v>180</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3137,22 +3149,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="4">
-        <v>7705451</v>
+        <v>7485251</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2176</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F83" s="4">
         <v>3</v>
       </c>
       <c r="G83" s="4">
-        <v>546</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3160,22 +3172,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>7705339</v>
+        <v>7208271</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="3">
-        <v>2030</v>
+        <v>84</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F84" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G84" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3183,22 +3195,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="4">
-        <v>7705341</v>
+        <v>4906175</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D85" s="4">
-        <v>8000</v>
+        <v>3960</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85" s="4">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3206,22 +3218,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>7705337</v>
+        <v>4906184</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D86" s="3">
-        <v>4940</v>
+        <v>7500</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3229,22 +3241,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="4">
-        <v>3040265</v>
+        <v>7705451</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="4">
-        <v>4575</v>
+        <v>87</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F87" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G87" s="4">
-        <v>180</v>
+        <v>546</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3252,22 +3264,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>3001265</v>
+        <v>7705339</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D88" s="3">
-        <v>5010</v>
+        <v>2030</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3275,22 +3287,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="4">
-        <v>3006401</v>
+        <v>7705341</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
+      </c>
+      <c r="D89" s="4">
+        <v>8000</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G89" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3298,22 +3310,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>3006265</v>
+        <v>7705337</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D90" s="3">
-        <v>5336</v>
+        <v>4940</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F90" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G90" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3321,22 +3333,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="4">
-        <v>3006403</v>
+        <v>3040265</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4575</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F91" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G91" s="4">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3344,22 +3356,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>3006234</v>
+        <v>3001265</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D92" s="3">
-        <v>5532</v>
+        <v>5010</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F92" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G92" s="3">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3367,10 +3379,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="4">
-        <v>3084401</v>
+        <v>3006401</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>11</v>
@@ -3382,6 +3394,98 @@
         <v>0</v>
       </c>
       <c r="G93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>3006265</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="3">
+        <v>5336</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>30</v>
+      </c>
+      <c r="G94" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4">
+        <v>3006403</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>3006234</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="3">
+        <v>5532</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="3">
+        <v>17</v>
+      </c>
+      <c r="G96" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
+        <v>3084401</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5FD282-B9D7-45F2-85B7-95107689526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB7357F-681D-41E1-B561-FB2DAF48B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CF230-FE28-411F-9665-00F0E407DD20}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,10 +1367,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4">
-        <v>840</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1390,10 +1390,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>630</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1413,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1643,10 +1643,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4">
-        <v>860</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1758,10 +1758,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3">
-        <v>1584</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1988,10 +1988,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2195,10 +2195,10 @@
         <v>8</v>
       </c>
       <c r="F41" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="4">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2241,10 +2241,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G43" s="4">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2264,10 +2264,10 @@
         <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2609,10 +2609,10 @@
         <v>8</v>
       </c>
       <c r="F59" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G59" s="4">
-        <v>440</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2770,10 +2770,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2793,10 +2793,10 @@
         <v>8</v>
       </c>
       <c r="F67" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G67" s="4">
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2931,10 +2931,10 @@
         <v>8</v>
       </c>
       <c r="F73" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G73" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2977,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="F75" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G75" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -3069,10 +3069,10 @@
         <v>8</v>
       </c>
       <c r="F79" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3092,10 +3092,10 @@
         <v>8</v>
       </c>
       <c r="F80" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G80" s="3">
-        <v>520</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3115,10 +3115,10 @@
         <v>8</v>
       </c>
       <c r="F81" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G81" s="4">
-        <v>720</v>
+        <v>660</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3207,10 +3207,10 @@
         <v>8</v>
       </c>
       <c r="F85" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3230,10 +3230,10 @@
         <v>8</v>
       </c>
       <c r="F86" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G86" s="3">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3414,10 +3414,10 @@
         <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G94" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB7357F-681D-41E1-B561-FB2DAF48B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95131D4F-940C-4939-BA6B-6E2BC6FAC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CF230-FE28-411F-9665-00F0E407DD20}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,10 +1298,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -1413,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4">
-        <v>616</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1436,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3">
-        <v>560</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1505,10 +1505,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -1620,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1781,10 +1781,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="4">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G23" s="4">
-        <v>564</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1919,10 +1919,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2034,10 +2034,10 @@
         <v>8</v>
       </c>
       <c r="F34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2080,10 +2080,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G36" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2264,10 +2264,10 @@
         <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G44" s="3">
-        <v>340</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2540,10 +2540,10 @@
         <v>8</v>
       </c>
       <c r="F56" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G56" s="3">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2609,10 +2609,10 @@
         <v>8</v>
       </c>
       <c r="F59" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G59" s="4">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2747,10 +2747,10 @@
         <v>8</v>
       </c>
       <c r="F65" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G65" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -3092,10 +3092,10 @@
         <v>8</v>
       </c>
       <c r="F80" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="3">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3138,10 +3138,10 @@
         <v>8</v>
       </c>
       <c r="F82" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G82" s="3">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3230,10 +3230,10 @@
         <v>8</v>
       </c>
       <c r="F86" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G86" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95131D4F-940C-4939-BA6B-6E2BC6FAC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548CA69E-EED9-451F-8314-E86DF4BADBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="103">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>SERVO PRIDE NXT CK4 15W-40-7.5 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90-20L BUC</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CF230-FE28-411F-9665-00F0E407DD20}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,10 +1738,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" s="4">
-        <v>700</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1873,10 +1876,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G27" s="4">
-        <v>48</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1896,10 +1899,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G28" s="3">
-        <v>120</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1988,10 +1991,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2126,10 +2129,10 @@
         <v>8</v>
       </c>
       <c r="F38" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G38" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2252,22 +2255,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>2502184</v>
+        <v>2502265</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D44" s="3">
-        <v>7100</v>
+        <v>6830</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2275,36 +2278,36 @@
         <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>2502174</v>
+        <v>2502184</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="4">
-        <v>7520</v>
+        <v>7100</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="4">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G45" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>7511184</v>
+        <v>2502174</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3">
-        <v>7800</v>
+        <v>7520</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>8</v>
@@ -2316,27 +2319,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4">
-        <v>7511401</v>
+        <v>7511184</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="D47" s="4">
+        <v>7800</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G47" s="4">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2344,22 +2347,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>7511251</v>
+        <v>7511401</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2763</v>
+        <v>51</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="3">
-        <v>7.5</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2367,22 +2370,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="4">
-        <v>7705313</v>
+        <v>7511251</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D49" s="4">
-        <v>4500</v>
+        <v>2763</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2390,22 +2393,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>7705303</v>
+        <v>7705313</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2413,22 +2416,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="4">
-        <v>7211213</v>
+        <v>7705303</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4">
-        <v>6300</v>
+        <v>4600</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G51" s="4">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2436,13 +2439,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>2927152</v>
+        <v>7211213</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="3">
-        <v>6840</v>
+        <v>6300</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -2451,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="3">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2459,22 +2462,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="4">
-        <v>2933156</v>
+        <v>2927152</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="4">
-        <v>6480</v>
+        <v>6840</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G53" s="4">
-        <v>320</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2482,22 +2485,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>7584401</v>
+        <v>2933156</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="D54" s="3">
+        <v>6480</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2505,16 +2508,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4">
-        <v>7584175</v>
+        <v>7584401</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="4">
-        <v>4060</v>
+        <v>57</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -2528,22 +2531,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>7584184</v>
+        <v>7584175</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="3">
-        <v>7400</v>
+        <v>4060</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2551,22 +2554,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="4">
-        <v>7577401</v>
+        <v>7584184</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="D57" s="4">
+        <v>7400</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G57" s="4">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2574,16 +2577,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>7577256</v>
+        <v>7577401</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="3">
-        <v>5025</v>
+        <v>60</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2592,27 +2595,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="4">
-        <v>7577184</v>
+        <v>7577256</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="4">
-        <v>6900</v>
+        <v>5025</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G59" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2620,22 +2623,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>7577174</v>
+        <v>7577184</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" s="3">
-        <v>7320</v>
+        <v>6900</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G60" s="3">
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2643,22 +2646,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="4">
-        <v>7577234</v>
+        <v>7577174</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="4">
-        <v>6780</v>
+        <v>7320</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G61" s="4">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2666,10 +2669,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>7577240</v>
+        <v>7577234</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="3">
         <v>6780</v>
@@ -2678,33 +2681,33 @@
         <v>8</v>
       </c>
       <c r="F62" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="4">
-        <v>1404184</v>
+        <v>7577240</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4">
-        <v>6800</v>
+        <v>6780</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G63" s="4">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2718,16 +2721,16 @@
         <v>66</v>
       </c>
       <c r="D64" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2735,10 +2738,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4">
-        <v>1404234</v>
+        <v>1404184</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="4">
         <v>7100</v>
@@ -2747,33 +2750,33 @@
         <v>8</v>
       </c>
       <c r="F65" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G65" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>7436253</v>
+        <v>1404234</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D66" s="3">
-        <v>6175</v>
+        <v>7100</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2781,13 +2784,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="4">
-        <v>7436250</v>
+        <v>7436253</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D67" s="4">
-        <v>3113</v>
+        <v>6175</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>8</v>
@@ -2799,18 +2802,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>7556234</v>
+        <v>7436250</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D68" s="3">
-        <v>6900</v>
+        <v>3113</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
@@ -2827,13 +2830,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="4">
-        <v>7556184</v>
+        <v>7556234</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>8</v>
@@ -2850,13 +2853,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>7556241</v>
+        <v>7556184</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" s="3">
-        <v>3400</v>
+        <v>7100</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>8</v>
@@ -2873,22 +2876,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="4">
-        <v>7556253</v>
+        <v>7556241</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" s="4">
-        <v>5025</v>
+        <v>3400</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G71" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2896,59 +2899,59 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>7556250</v>
+        <v>7556253</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" s="3">
-        <v>2563</v>
+        <v>5025</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="4">
-        <v>7489253</v>
+        <v>7556250</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4">
-        <v>5675</v>
+        <v>2563</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>7489265</v>
+        <v>7489253</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="3">
-        <v>7500</v>
+        <v>5675</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>8</v>
@@ -2965,13 +2968,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="4">
-        <v>7489184</v>
+        <v>7489265</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" s="4">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>8</v>
@@ -2983,18 +2986,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>7489234</v>
+        <v>7489184</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D76" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
@@ -3011,36 +3014,36 @@
         <v>76</v>
       </c>
       <c r="B77" s="4">
-        <v>2889156</v>
+        <v>7489234</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" s="4">
-        <v>6840</v>
+        <v>7700</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>7485242</v>
+        <v>2889156</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" s="3">
-        <v>2890</v>
+        <v>6840</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>8</v>
@@ -3049,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="G78" s="3">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3057,22 +3060,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="4">
-        <v>7485265</v>
+        <v>7485242</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="4">
-        <v>5740</v>
+        <v>2890</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3080,22 +3083,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>7485184</v>
+        <v>7485265</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" s="3">
-        <v>6040</v>
+        <v>5740</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="3">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G80" s="3">
-        <v>200</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3103,22 +3106,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="4">
-        <v>7485174</v>
+        <v>7485184</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" s="4">
-        <v>6240</v>
+        <v>6040</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="4">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G81" s="4">
-        <v>660</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3126,22 +3129,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>7485234</v>
+        <v>7485174</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="3">
-        <v>6020</v>
+        <v>6240</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G82" s="3">
-        <v>240</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3149,22 +3152,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="4">
-        <v>7485251</v>
+        <v>7485234</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" s="4">
-        <v>2176</v>
+        <v>6020</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G83" s="4">
-        <v>22.5</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3172,22 +3175,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>7208271</v>
+        <v>7485251</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2176</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F84" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3195,22 +3198,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="4">
-        <v>4906175</v>
+        <v>7208271</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" s="4">
-        <v>3960</v>
+        <v>84</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F85" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3218,22 +3221,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>4906184</v>
+        <v>4906175</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="3">
-        <v>7500</v>
+        <v>3960</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G86" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3241,22 +3244,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="4">
-        <v>7705451</v>
+        <v>4906184</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="D87" s="4">
+        <v>7500</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F87" s="4">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G87" s="4">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3264,22 +3267,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>7705339</v>
+        <v>7705451</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D88" s="3">
-        <v>2030</v>
+        <v>87</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F88" s="3">
         <v>3</v>
       </c>
       <c r="G88" s="3">
-        <v>15</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3287,22 +3290,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="4">
-        <v>7705341</v>
+        <v>7705339</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4">
-        <v>8000</v>
+        <v>2030</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G89" s="4">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3310,22 +3313,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>7705337</v>
+        <v>7705341</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="3">
-        <v>4940</v>
+        <v>8000</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F90" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G90" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3333,22 +3336,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="4">
-        <v>3040265</v>
+        <v>7705337</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="4">
-        <v>4575</v>
+        <v>4940</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G91" s="4">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3356,22 +3359,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>3001265</v>
+        <v>3040265</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="3">
-        <v>5010</v>
+        <v>4575</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F92" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G92" s="3">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3379,16 +3382,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4">
-        <v>3006401</v>
+        <v>3001265</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="D93" s="4">
+        <v>5010</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -3402,22 +3405,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>3006265</v>
+        <v>3006401</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D94" s="3">
-        <v>5336</v>
+        <v>93</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F94" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3425,22 +3428,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="4">
-        <v>3006403</v>
+        <v>3006265</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>11</v>
+        <v>94</v>
+      </c>
+      <c r="D95" s="4">
+        <v>5336</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F95" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G95" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3448,22 +3451,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>3006234</v>
+        <v>3006403</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="3">
-        <v>5532</v>
+        <v>95</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F96" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3471,21 +3474,44 @@
         <v>96</v>
       </c>
       <c r="B97" s="4">
+        <v>3006234</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="4">
+        <v>5532</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="4">
+        <v>17</v>
+      </c>
+      <c r="G97" s="4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
         <v>3084401</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="4">
-        <v>0</v>
-      </c>
-      <c r="G97" s="4">
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548CA69E-EED9-451F-8314-E86DF4BADBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E782B72-0DF8-4F33-A482-4433F1E75C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,10 +1738,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="4">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1876,10 +1876,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G27" s="4">
-        <v>168</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1899,10 +1899,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G28" s="3">
-        <v>520</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2129,10 +2129,10 @@
         <v>8</v>
       </c>
       <c r="F38" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G38" s="3">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2244,10 +2244,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2267,10 +2267,10 @@
         <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2290,10 +2290,10 @@
         <v>8</v>
       </c>
       <c r="F45" s="4">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G45" s="4">
-        <v>580</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2566,10 +2566,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="4">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G57" s="4">
-        <v>780</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2635,10 +2635,10 @@
         <v>8</v>
       </c>
       <c r="F60" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2727,10 +2727,10 @@
         <v>8</v>
       </c>
       <c r="F64" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2750,10 +2750,10 @@
         <v>8</v>
       </c>
       <c r="F65" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G65" s="4">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3095,10 +3095,10 @@
         <v>8</v>
       </c>
       <c r="F80" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G80" s="3">
-        <v>480</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3118,10 +3118,10 @@
         <v>8</v>
       </c>
       <c r="F81" s="4">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G81" s="4">
-        <v>1060</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3141,10 +3141,10 @@
         <v>8</v>
       </c>
       <c r="F82" s="3">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G82" s="3">
-        <v>660</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3164,10 +3164,10 @@
         <v>8</v>
       </c>
       <c r="F83" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G83" s="4">
-        <v>340</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3256,10 +3256,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="4">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G87" s="4">
-        <v>520</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3440,10 +3440,10 @@
         <v>8</v>
       </c>
       <c r="F95" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G95" s="4">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
